--- a/backend/uploaded/Report.xlsx
+++ b/backend/uploaded/Report.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="20">
   <si>
     <t>Invoice Numbers</t>
   </si>
@@ -422,10 +422,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -435,6 +435,8 @@
     <col min="4" max="4" width="14.88671875" customWidth="1"/>
     <col min="5" max="5" width="18.88671875" customWidth="1"/>
     <col min="6" max="6" width="21.6640625" customWidth="1"/>
+    <col min="8" max="8" width="16" customWidth="1"/>
+    <col min="9" max="9" width="25.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
@@ -914,6 +916,70 @@
         <v>19</v>
       </c>
       <c r="J15" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>1</v>
+      </c>
+      <c r="B16" s="1">
+        <v>89</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="3">
+        <v>45711</v>
+      </c>
+      <c r="E16" s="3">
+        <v>43062</v>
+      </c>
+      <c r="F16" s="3">
+        <v>42972</v>
+      </c>
+      <c r="G16" s="1">
+        <v>-100</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>189</v>
+      </c>
+      <c r="B17" s="1">
+        <v>89</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="3">
+        <v>45711</v>
+      </c>
+      <c r="E17" s="3">
+        <v>43062</v>
+      </c>
+      <c r="F17" s="3">
+        <v>42972</v>
+      </c>
+      <c r="G17" s="1">
+        <v>-100</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J17" s="2" t="s">
         <v>13</v>
       </c>
     </row>

--- a/backend/uploaded/Report.xlsx
+++ b/backend/uploaded/Report.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="20">
   <si>
     <t>Invoice Numbers</t>
   </si>
@@ -422,10 +422,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -921,16 +921,16 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
-        <v>1</v>
+        <v>103</v>
       </c>
       <c r="B16" s="1">
-        <v>89</v>
+        <v>134</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D16" s="3">
-        <v>45711</v>
+        <v>45724</v>
       </c>
       <c r="E16" s="3">
         <v>43062</v>
@@ -939,49 +939,53 @@
         <v>42972</v>
       </c>
       <c r="G16" s="1">
-        <v>-100</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>11</v>
+        <v>30</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J16" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
-        <v>189</v>
-      </c>
-      <c r="B17" s="1">
-        <v>89</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D17" s="3">
-        <v>45711</v>
-      </c>
-      <c r="E17" s="3">
-        <v>43062</v>
-      </c>
-      <c r="F17" s="3">
-        <v>42972</v>
-      </c>
-      <c r="G17" s="1">
-        <v>-100</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="1"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/backend/uploaded/Report.xlsx
+++ b/backend/uploaded/Report.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="21">
   <si>
     <t>Invoice Numbers</t>
   </si>
@@ -76,6 +76,9 @@
   </si>
   <si>
     <t>Chatisgarh Chemicals</t>
+  </si>
+  <si>
+    <t>Ajay Chemicals</t>
   </si>
 </sst>
 </file>
@@ -425,7 +428,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -435,6 +438,7 @@
     <col min="4" max="4" width="14.88671875" customWidth="1"/>
     <col min="5" max="5" width="18.88671875" customWidth="1"/>
     <col min="6" max="6" width="21.6640625" customWidth="1"/>
+    <col min="7" max="7" width="23.6640625" customWidth="1"/>
     <col min="8" max="8" width="16" customWidth="1"/>
     <col min="9" max="9" width="25.5546875" customWidth="1"/>
   </cols>
@@ -849,7 +853,7 @@
         <v>11</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>13</v>
@@ -952,28 +956,68 @@
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="1"/>
+      <c r="A17" s="1">
+        <v>104</v>
+      </c>
+      <c r="B17" s="1">
+        <v>132</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="3">
+        <v>45722</v>
+      </c>
+      <c r="E17" s="3">
+        <v>43062</v>
+      </c>
+      <c r="F17" s="3">
+        <v>42972</v>
+      </c>
+      <c r="G17" s="1">
+        <v>200</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
+      <c r="A18" s="1">
+        <v>105</v>
+      </c>
+      <c r="B18" s="1">
+        <v>22</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="3">
+        <v>45722</v>
+      </c>
+      <c r="E18" s="3">
+        <v>43062</v>
+      </c>
+      <c r="F18" s="3">
+        <v>42972</v>
+      </c>
+      <c r="G18" s="1">
+        <v>200</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
